--- a/Documents/VehicleTypes.xlsx
+++ b/Documents/VehicleTypes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="0" windowWidth="27345" windowHeight="14820"/>
+    <workbookView xWindow="2910" yWindow="0" windowWidth="27345" windowHeight="14820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="313">
   <si>
     <t>name</t>
   </si>
@@ -89,9 +89,6 @@
     <t>ST_Eicher_2090S</t>
   </si>
   <si>
-    <t>Same_Fortis_190_FL</t>
-  </si>
-  <si>
     <t>SameFortis190</t>
   </si>
   <si>
@@ -476,9 +473,6 @@
     <t>http://americaneaglesmodding.com/index.php?action=downloads;sa=view;down=1098</t>
   </si>
   <si>
-    <t>http://www.modhoster.de/mods/peterbilt-3782D2D2</t>
-  </si>
-  <si>
     <t>http://www.modhoster.de/mods/peterbilt-387--5</t>
   </si>
   <si>
@@ -795,13 +789,199 @@
   </si>
   <si>
     <t>xmlName6</t>
+  </si>
+  <si>
+    <t>Pack_K_701_PKU_K_700</t>
+  </si>
+  <si>
+    <t>MR_Raba245Devavanya</t>
+  </si>
+  <si>
+    <t>Deutz_AgroStar_681_HPE_by_HoFFi</t>
+  </si>
+  <si>
+    <t>HuerlimannH496</t>
+  </si>
+  <si>
+    <t>Same_Fortis_190</t>
+  </si>
+  <si>
+    <t>Same_Fortis_210</t>
+  </si>
+  <si>
+    <t>SteyrMulti4115</t>
+  </si>
+  <si>
+    <t>FendtFavorit_512C</t>
+  </si>
+  <si>
+    <t>Fendt_Favorit_824</t>
+  </si>
+  <si>
+    <t>i8</t>
+  </si>
+  <si>
+    <t>JohnDeere7530</t>
+  </si>
+  <si>
+    <t>FBM_JohnDeere7530_premium</t>
+  </si>
+  <si>
+    <t>MF_5712</t>
+  </si>
+  <si>
+    <t>MF_6613</t>
+  </si>
+  <si>
+    <t>MF_7718</t>
+  </si>
+  <si>
+    <t>FS15_DeutzTTV7210_7250</t>
+  </si>
+  <si>
+    <t>DeutzTTV</t>
+  </si>
+  <si>
+    <t>deutzfahr7250</t>
+  </si>
+  <si>
+    <t>FS15_DeutzTTV7250</t>
+  </si>
+  <si>
+    <t>LS15_CasePuma240CVX_</t>
+  </si>
+  <si>
+    <t>SteyrCVT6230</t>
+  </si>
+  <si>
+    <t>aacase_optum_300</t>
+  </si>
+  <si>
+    <t>LS15_Optum_300</t>
+  </si>
+  <si>
+    <t>JohnDeere7930</t>
+  </si>
+  <si>
+    <t>LamborghiniNitro120VRT</t>
+  </si>
+  <si>
+    <t>FS15_lamborghiniNitro</t>
+  </si>
+  <si>
+    <t>CZMOD_FENDT_900_Series</t>
+  </si>
+  <si>
+    <t>Fendt939</t>
+  </si>
+  <si>
+    <t>MF_6616</t>
+  </si>
+  <si>
+    <t>MF_7726</t>
+  </si>
+  <si>
+    <t>ClaasDominator88s_nonAdvanced</t>
+  </si>
+  <si>
+    <t>JohnDeere_670</t>
+  </si>
+  <si>
+    <t>jd_8600i</t>
+  </si>
+  <si>
+    <t>Fendtkatana85</t>
+  </si>
+  <si>
+    <t>NH_FX48</t>
+  </si>
+  <si>
+    <t>KramerKL600F</t>
+  </si>
+  <si>
+    <t>Hanomag55D</t>
+  </si>
+  <si>
+    <t>http://www.modhoster.de/mods/raba-245-devavanya</t>
+  </si>
+  <si>
+    <t>https://www.modhoster.de/mods/hurlimann-h496-hpe</t>
+  </si>
+  <si>
+    <t>https://www.modhoster.de/mods/same-fortis-210-hpe</t>
+  </si>
+  <si>
+    <t>http://www.modhoster.de/mods/steyr-4115-multi-hardpoint</t>
+  </si>
+  <si>
+    <t>http://www.modhoster.de/mods/chevrolet-c-10-fleetside-lwb-1966</t>
+  </si>
+  <si>
+    <t>http://www.modhoster.de/mods/peterbilt-378--2</t>
+  </si>
+  <si>
+    <t>http://fs-uk.com/mods/view/37255/massey-ferguson-pack</t>
+  </si>
+  <si>
+    <t>https://www.modhoster.de/mods/deutz-fahr-ttv-7250--13</t>
+  </si>
+  <si>
+    <t>http://www.modhoster.de/mods/deutzfahr_pack</t>
+  </si>
+  <si>
+    <t>http://www.modhoster.de/mods/deutz-fahr-7250-ttn-warrior</t>
+  </si>
+  <si>
+    <t>http://www.modhoster.de/mods/deutz-fahr-7250ttv-warrior-limited-edition</t>
+  </si>
+  <si>
+    <t>http://www.modhoster.de/mods/steyr-cvt-6230-hardpoint</t>
+  </si>
+  <si>
+    <t>http://www.modhoster.de/mods/case-ih-optum-cvx-300-270</t>
+  </si>
+  <si>
+    <t>https://www.modhoster.de/mods/john-deere-7930--113</t>
+  </si>
+  <si>
+    <t>https://www.modhoster.de/mods/lamborghini-nitro-120-vrt--3</t>
+  </si>
+  <si>
+    <t>http://www.modhoster.de/mods/fendt-900-series</t>
+  </si>
+  <si>
+    <t>http://www.modhoster.de/mods/fendt-936-vario-pack--10</t>
+  </si>
+  <si>
+    <t>https://ls-portal.eu/fendt-939-vario-washable-full/</t>
+  </si>
+  <si>
+    <t>http://farming-simulator.com/mod.php?mod_id=35810</t>
+  </si>
+  <si>
+    <t>http://modhoster.de/mods/john-deere-8600i</t>
+  </si>
+  <si>
+    <t>http://www.modhoster.de/mods/new-holland-fx48--2</t>
+  </si>
+  <si>
+    <t>https://www.modhoster.de/mods/kramer-kl-600-pendelachse</t>
+  </si>
+  <si>
+    <t>http://www.modhoster.de/mods/hanomag-55d</t>
+  </si>
+  <si>
+    <t>isPrefix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="###,000"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,16 +997,201 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF1F497D"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1F497D"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF00CC00"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF33CC33"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF9900"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF1F497D"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF1F497D"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE5F1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1F5FB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9EFF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6F9C1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABEDA5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF94D88F"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFDBF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFB8C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF843"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF988C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6758"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE5F1"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7CFE8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3D6EB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE5F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -834,19 +1199,224 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="36">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="SAPBorder" xfId="20"/>
+    <cellStyle name="SAPDataCell" xfId="3"/>
+    <cellStyle name="SAPDataTotalCell" xfId="4"/>
+    <cellStyle name="SAPDimensionCell" xfId="2"/>
+    <cellStyle name="SAPEditableDataCell" xfId="5"/>
+    <cellStyle name="SAPEditableDataTotalCell" xfId="8"/>
+    <cellStyle name="SAPEmphasized" xfId="28"/>
+    <cellStyle name="SAPEmphasizedEditableDataCell" xfId="30"/>
+    <cellStyle name="SAPEmphasizedEditableDataTotalCell" xfId="31"/>
+    <cellStyle name="SAPEmphasizedLockedDataCell" xfId="34"/>
+    <cellStyle name="SAPEmphasizedLockedDataTotalCell" xfId="35"/>
+    <cellStyle name="SAPEmphasizedReadonlyDataCell" xfId="32"/>
+    <cellStyle name="SAPEmphasizedReadonlyDataTotalCell" xfId="33"/>
+    <cellStyle name="SAPEmphasizedTotal" xfId="29"/>
+    <cellStyle name="SAPExceptionLevel1" xfId="11"/>
+    <cellStyle name="SAPExceptionLevel2" xfId="12"/>
+    <cellStyle name="SAPExceptionLevel3" xfId="13"/>
+    <cellStyle name="SAPExceptionLevel4" xfId="14"/>
+    <cellStyle name="SAPExceptionLevel5" xfId="15"/>
+    <cellStyle name="SAPExceptionLevel6" xfId="16"/>
+    <cellStyle name="SAPExceptionLevel7" xfId="17"/>
+    <cellStyle name="SAPExceptionLevel8" xfId="18"/>
+    <cellStyle name="SAPExceptionLevel9" xfId="19"/>
+    <cellStyle name="SAPHierarchyCell0" xfId="23"/>
+    <cellStyle name="SAPHierarchyCell1" xfId="24"/>
+    <cellStyle name="SAPHierarchyCell2" xfId="25"/>
+    <cellStyle name="SAPHierarchyCell3" xfId="26"/>
+    <cellStyle name="SAPHierarchyCell4" xfId="27"/>
+    <cellStyle name="SAPLockedDataCell" xfId="7"/>
+    <cellStyle name="SAPLockedDataTotalCell" xfId="10"/>
+    <cellStyle name="SAPMemberCell" xfId="21"/>
+    <cellStyle name="SAPMemberTotalCell" xfId="22"/>
+    <cellStyle name="SAPReadonlyDataCell" xfId="6"/>
+    <cellStyle name="SAPReadonlyDataTotalCell" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1064,17 +1634,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B126" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:B126"/>
-  <sortState ref="A2:B126">
-    <sortCondition ref="A10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C169" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:C169"/>
+  <sortState ref="A2:C169">
+    <sortCondition ref="A5"/>
   </sortState>
-  <tableColumns count="2">
+  <tableColumns count="3">
     <tableColumn id="1" uniqueName="name" name="name">
       <xmlColumnPr mapId="1" xpath="/vehicles/vehicle/mod/@name" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="99" uniqueName="href" name="href">
       <xmlColumnPr mapId="1" xpath="/vehicles/vehicle/mod/link/@href" xmlDataType="anyURI"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="isPrefix" name="isPrefix">
+      <xmlColumnPr mapId="1" xpath="/vehicles/vehicle/mod/@isPrefix" xmlDataType="boolean"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1085,8 +1658,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F29" tableType="xml" totalsRowShown="0" connectionId="1">
   <autoFilter ref="A1:F29"/>
   <sortState ref="A2:F29">
-    <sortCondition ref="E2:E29"/>
-    <sortCondition ref="F2:F29"/>
+    <sortCondition ref="A8"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="xmlName" name="xmlName">
@@ -1365,243 +1937,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B126"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81.140625" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>256</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
@@ -1609,775 +2231,1315 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B77" s="2"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B137" s="2"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="2"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="B143" s="2"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B86" s="2"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B87" s="2"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B93" s="2"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" s="2"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" s="2"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B101" s="2"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B102" s="2"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B107" s="2"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B108" s="2"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B112" s="2"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B122" s="2"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B123" s="2"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>129</v>
+      <c r="B146" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B154" s="2"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B160" s="2"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B162" s="2"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B164" s="2"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B165" s="2"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B167" s="2"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B64" r:id="rId1"/>
-    <hyperlink ref="B115" r:id="rId2"/>
-    <hyperlink ref="B116" r:id="rId3"/>
-    <hyperlink ref="B117" r:id="rId4"/>
-    <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B100" r:id="rId6"/>
-    <hyperlink ref="B62" r:id="rId7"/>
-    <hyperlink ref="B63" r:id="rId8"/>
-    <hyperlink ref="B27" r:id="rId9"/>
-    <hyperlink ref="B28" r:id="rId10"/>
-    <hyperlink ref="B26" r:id="rId11"/>
-    <hyperlink ref="B118" r:id="rId12"/>
-    <hyperlink ref="B109" r:id="rId13"/>
-    <hyperlink ref="B110" r:id="rId14"/>
-    <hyperlink ref="B30" r:id="rId15"/>
-    <hyperlink ref="B31" r:id="rId16"/>
-    <hyperlink ref="B47" r:id="rId17"/>
-    <hyperlink ref="B124" r:id="rId18"/>
-    <hyperlink ref="B97" r:id="rId19"/>
-    <hyperlink ref="B98" r:id="rId20"/>
-    <hyperlink ref="B103" r:id="rId21"/>
-    <hyperlink ref="B111" r:id="rId22"/>
-    <hyperlink ref="B121" r:id="rId23"/>
-    <hyperlink ref="B126" r:id="rId24"/>
-    <hyperlink ref="B125" r:id="rId25"/>
-    <hyperlink ref="B5" r:id="rId26"/>
-    <hyperlink ref="B119" r:id="rId27"/>
-    <hyperlink ref="B96" r:id="rId28"/>
-    <hyperlink ref="B69" r:id="rId29"/>
-    <hyperlink ref="B6" r:id="rId30"/>
-    <hyperlink ref="B68" r:id="rId31"/>
-    <hyperlink ref="B70" r:id="rId32"/>
-    <hyperlink ref="B71" r:id="rId33"/>
-    <hyperlink ref="B66" r:id="rId34"/>
-    <hyperlink ref="B67" r:id="rId35"/>
-    <hyperlink ref="B42" r:id="rId36"/>
-    <hyperlink ref="B41" r:id="rId37"/>
-    <hyperlink ref="B120" r:id="rId38"/>
-    <hyperlink ref="B85" r:id="rId39"/>
-    <hyperlink ref="B9" r:id="rId40"/>
-    <hyperlink ref="B10" r:id="rId41"/>
-    <hyperlink ref="B59" r:id="rId42"/>
-    <hyperlink ref="B106" r:id="rId43"/>
-    <hyperlink ref="B104" r:id="rId44"/>
-    <hyperlink ref="B105" r:id="rId45"/>
-    <hyperlink ref="B4" r:id="rId46"/>
-    <hyperlink ref="B3" r:id="rId47"/>
-    <hyperlink ref="B74" r:id="rId48"/>
-    <hyperlink ref="B75" r:id="rId49"/>
-    <hyperlink ref="B25" r:id="rId50"/>
-    <hyperlink ref="B21" r:id="rId51"/>
-    <hyperlink ref="B76" r:id="rId52"/>
-    <hyperlink ref="B61" r:id="rId53"/>
-    <hyperlink ref="B88" r:id="rId54"/>
-    <hyperlink ref="B89" r:id="rId55"/>
-    <hyperlink ref="B90" r:id="rId56"/>
-    <hyperlink ref="B91" r:id="rId57"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
+    <hyperlink ref="B15" r:id="rId10"/>
+    <hyperlink ref="B17" r:id="rId11"/>
+    <hyperlink ref="B20" r:id="rId12"/>
+    <hyperlink ref="B23" r:id="rId13"/>
+    <hyperlink ref="B24" r:id="rId14"/>
+    <hyperlink ref="B25" r:id="rId15"/>
+    <hyperlink ref="B26" r:id="rId16"/>
+    <hyperlink ref="B27" r:id="rId17"/>
+    <hyperlink ref="B28" r:id="rId18"/>
+    <hyperlink ref="B29" r:id="rId19"/>
+    <hyperlink ref="B30" r:id="rId20"/>
+    <hyperlink ref="B31" r:id="rId21"/>
+    <hyperlink ref="B32" r:id="rId22"/>
+    <hyperlink ref="B33" r:id="rId23"/>
+    <hyperlink ref="B34" r:id="rId24"/>
+    <hyperlink ref="B35" r:id="rId25"/>
+    <hyperlink ref="B36" r:id="rId26"/>
+    <hyperlink ref="B38" r:id="rId27"/>
+    <hyperlink ref="B42" r:id="rId28"/>
+    <hyperlink ref="B43" r:id="rId29"/>
+    <hyperlink ref="B44" r:id="rId30"/>
+    <hyperlink ref="B45" r:id="rId31"/>
+    <hyperlink ref="B46" r:id="rId32"/>
+    <hyperlink ref="B47" r:id="rId33"/>
+    <hyperlink ref="B48" r:id="rId34"/>
+    <hyperlink ref="B49" r:id="rId35"/>
+    <hyperlink ref="B50" r:id="rId36"/>
+    <hyperlink ref="B51" r:id="rId37"/>
+    <hyperlink ref="B52" r:id="rId38"/>
+    <hyperlink ref="B53" r:id="rId39"/>
+    <hyperlink ref="B54" r:id="rId40"/>
+    <hyperlink ref="B55" r:id="rId41"/>
+    <hyperlink ref="B56" r:id="rId42"/>
+    <hyperlink ref="B60" r:id="rId43"/>
+    <hyperlink ref="B61" r:id="rId44"/>
+    <hyperlink ref="B62" r:id="rId45"/>
+    <hyperlink ref="B63" r:id="rId46"/>
+    <hyperlink ref="B64" r:id="rId47"/>
+    <hyperlink ref="B65" r:id="rId48"/>
+    <hyperlink ref="B66" r:id="rId49"/>
+    <hyperlink ref="B67" r:id="rId50"/>
+    <hyperlink ref="B68" r:id="rId51"/>
+    <hyperlink ref="B72" r:id="rId52"/>
+    <hyperlink ref="B73" r:id="rId53"/>
+    <hyperlink ref="B78" r:id="rId54"/>
+    <hyperlink ref="B79" r:id="rId55"/>
+    <hyperlink ref="B82" r:id="rId56"/>
+    <hyperlink ref="B83" r:id="rId57"/>
     <hyperlink ref="B84" r:id="rId58"/>
-    <hyperlink ref="B2" r:id="rId59"/>
-    <hyperlink ref="B23" r:id="rId60"/>
-    <hyperlink ref="B32" r:id="rId61"/>
-    <hyperlink ref="B60" r:id="rId62"/>
-    <hyperlink ref="B45" r:id="rId63"/>
-    <hyperlink ref="B43" r:id="rId64"/>
-    <hyperlink ref="B39" r:id="rId65"/>
+    <hyperlink ref="B85" r:id="rId59"/>
+    <hyperlink ref="B86" r:id="rId60"/>
+    <hyperlink ref="B87" r:id="rId61"/>
+    <hyperlink ref="B88" r:id="rId62"/>
+    <hyperlink ref="B89" r:id="rId63"/>
+    <hyperlink ref="B90" r:id="rId64"/>
+    <hyperlink ref="B91" r:id="rId65"/>
     <hyperlink ref="B92" r:id="rId66"/>
-    <hyperlink ref="B7" r:id="rId67"/>
-    <hyperlink ref="B48" r:id="rId68"/>
-    <hyperlink ref="B49" r:id="rId69"/>
-    <hyperlink ref="B65" r:id="rId70"/>
-    <hyperlink ref="B50" r:id="rId71"/>
-    <hyperlink ref="B14" r:id="rId72"/>
-    <hyperlink ref="B15" r:id="rId73"/>
-    <hyperlink ref="B16" r:id="rId74"/>
-    <hyperlink ref="B17" r:id="rId75"/>
-    <hyperlink ref="B18" r:id="rId76"/>
-    <hyperlink ref="B12" r:id="rId77"/>
-    <hyperlink ref="B34" r:id="rId78"/>
-    <hyperlink ref="B114" r:id="rId79"/>
+    <hyperlink ref="B93" r:id="rId67"/>
+    <hyperlink ref="B94" r:id="rId68"/>
+    <hyperlink ref="B95" r:id="rId69"/>
+    <hyperlink ref="B98" r:id="rId70"/>
+    <hyperlink ref="B99" r:id="rId71"/>
+    <hyperlink ref="B100" r:id="rId72"/>
+    <hyperlink ref="B101" r:id="rId73"/>
+    <hyperlink ref="B103" r:id="rId74"/>
+    <hyperlink ref="B104" r:id="rId75"/>
+    <hyperlink ref="B106" r:id="rId76"/>
+    <hyperlink ref="B107" r:id="rId77"/>
+    <hyperlink ref="B108" r:id="rId78"/>
+    <hyperlink ref="B111" r:id="rId79"/>
+    <hyperlink ref="B112" r:id="rId80"/>
+    <hyperlink ref="B113" r:id="rId81"/>
+    <hyperlink ref="B114" r:id="rId82"/>
+    <hyperlink ref="B115" r:id="rId83"/>
+    <hyperlink ref="B116" r:id="rId84"/>
+    <hyperlink ref="B118" r:id="rId85"/>
+    <hyperlink ref="B119" r:id="rId86"/>
+    <hyperlink ref="B120" r:id="rId87"/>
+    <hyperlink ref="B121" r:id="rId88"/>
+    <hyperlink ref="B122" r:id="rId89"/>
+    <hyperlink ref="B123" r:id="rId90"/>
+    <hyperlink ref="B124" r:id="rId91"/>
+    <hyperlink ref="B127" r:id="rId92"/>
+    <hyperlink ref="B128" r:id="rId93"/>
+    <hyperlink ref="B129" r:id="rId94"/>
+    <hyperlink ref="B130" r:id="rId95"/>
+    <hyperlink ref="B131" r:id="rId96"/>
+    <hyperlink ref="B133" r:id="rId97"/>
+    <hyperlink ref="B134" r:id="rId98"/>
+    <hyperlink ref="B136" r:id="rId99"/>
+    <hyperlink ref="B139" r:id="rId100"/>
+    <hyperlink ref="B146" r:id="rId101"/>
+    <hyperlink ref="B147" r:id="rId102"/>
+    <hyperlink ref="B148" r:id="rId103"/>
+    <hyperlink ref="B151" r:id="rId104"/>
+    <hyperlink ref="B152" r:id="rId105"/>
+    <hyperlink ref="B153" r:id="rId106"/>
+    <hyperlink ref="B156" r:id="rId107"/>
+    <hyperlink ref="B158" r:id="rId108"/>
+    <hyperlink ref="B159" r:id="rId109"/>
+    <hyperlink ref="B166" r:id="rId110"/>
+    <hyperlink ref="B168" r:id="rId111"/>
+    <hyperlink ref="B169" r:id="rId112"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId113"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId114"/>
+  </customProperties>
   <tableParts count="1">
-    <tablePart r:id="rId80"/>
+    <tablePart r:id="rId115"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2386,8 +3548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,316 +3567,304 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" t="s">
         <v>249</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>250</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>251</v>
-      </c>
-      <c r="E1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" t="s">
         <v>212</v>
       </c>
-      <c r="C2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" t="s">
-        <v>214</v>
-      </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" t="s">
         <v>212</v>
       </c>
-      <c r="C3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D3" t="s">
-        <v>214</v>
-      </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" t="s">
         <v>212</v>
       </c>
-      <c r="C4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" t="s">
-        <v>214</v>
-      </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" t="s">
         <v>212</v>
       </c>
-      <c r="C5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" t="s">
-        <v>214</v>
-      </c>
       <c r="E5" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="F5" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" t="s">
         <v>212</v>
       </c>
-      <c r="C6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" t="s">
-        <v>214</v>
-      </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" t="s">
         <v>212</v>
       </c>
-      <c r="C7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" t="s">
-        <v>214</v>
-      </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="F7" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" t="s">
         <v>212</v>
       </c>
-      <c r="C8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" t="s">
-        <v>214</v>
-      </c>
       <c r="E8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F8" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" t="s">
         <v>212</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>213</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>214</v>
-      </c>
-      <c r="E9" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" t="s">
         <v>212</v>
       </c>
-      <c r="C10" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" t="s">
-        <v>214</v>
-      </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F10" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" t="s">
         <v>212</v>
       </c>
-      <c r="C11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" t="s">
-        <v>214</v>
-      </c>
       <c r="E11" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F11" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" t="s">
         <v>212</v>
       </c>
-      <c r="C12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D12" t="s">
-        <v>214</v>
-      </c>
       <c r="E12" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F12" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D13" t="s">
-        <v>214</v>
-      </c>
-      <c r="E13" t="s">
-        <v>226</v>
-      </c>
-      <c r="F13" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" t="s">
         <v>212</v>
       </c>
-      <c r="C14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D14" t="s">
-        <v>214</v>
-      </c>
       <c r="E14" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F14" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" t="s">
         <v>212</v>
       </c>
-      <c r="C15" t="s">
-        <v>213</v>
-      </c>
-      <c r="D15" t="s">
-        <v>214</v>
-      </c>
       <c r="E15" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="F15" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" t="s">
         <v>212</v>
       </c>
-      <c r="C16" t="s">
-        <v>213</v>
-      </c>
-      <c r="D16" t="s">
-        <v>214</v>
-      </c>
       <c r="E16" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F16" t="s">
         <v>179</v>
@@ -2722,159 +3872,159 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" t="s">
         <v>212</v>
       </c>
-      <c r="C17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D17" t="s">
-        <v>214</v>
-      </c>
       <c r="E17" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F17" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" t="s">
         <v>212</v>
       </c>
-      <c r="C18" t="s">
-        <v>213</v>
-      </c>
-      <c r="D18" t="s">
-        <v>214</v>
-      </c>
       <c r="E18" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F18" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" t="s">
         <v>212</v>
       </c>
-      <c r="C19" t="s">
-        <v>213</v>
-      </c>
-      <c r="D19" t="s">
-        <v>214</v>
-      </c>
       <c r="E19" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F19" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" t="s">
         <v>212</v>
       </c>
-      <c r="C20" t="s">
-        <v>213</v>
-      </c>
-      <c r="D20" t="s">
-        <v>214</v>
-      </c>
       <c r="E20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F20" t="s">
-        <v>237</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D21" t="s">
         <v>212</v>
       </c>
-      <c r="C21" t="s">
-        <v>213</v>
-      </c>
-      <c r="D21" t="s">
-        <v>214</v>
-      </c>
       <c r="E21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F21" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" t="s">
         <v>212</v>
       </c>
-      <c r="C22" t="s">
-        <v>213</v>
-      </c>
-      <c r="D22" t="s">
-        <v>214</v>
-      </c>
       <c r="E22" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="F22" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" t="s">
         <v>212</v>
       </c>
-      <c r="C23" t="s">
-        <v>213</v>
-      </c>
-      <c r="D23" t="s">
-        <v>214</v>
-      </c>
       <c r="E23" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F23" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" t="s">
         <v>212</v>
       </c>
-      <c r="C24" t="s">
-        <v>213</v>
-      </c>
-      <c r="D24" t="s">
-        <v>214</v>
-      </c>
       <c r="E24" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="F24" t="s">
         <v>178</v>
@@ -2882,90 +4032,105 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" t="s">
         <v>212</v>
       </c>
-      <c r="C25" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" t="s">
-        <v>214</v>
-      </c>
       <c r="E25" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" t="s">
         <v>212</v>
       </c>
-      <c r="C26" t="s">
-        <v>213</v>
-      </c>
-      <c r="D26" t="s">
-        <v>214</v>
-      </c>
       <c r="E26" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" t="s">
         <v>212</v>
       </c>
-      <c r="C27" t="s">
-        <v>213</v>
-      </c>
-      <c r="D27" t="s">
-        <v>214</v>
-      </c>
       <c r="E27" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="F27" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B28" t="s">
-        <v>204</v>
+        <v>210</v>
+      </c>
+      <c r="C28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" t="s">
+        <v>231</v>
+      </c>
+      <c r="F28" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>